--- a/策划案/设计文档/牌库表.xlsx
+++ b/策划案/设计文档/牌库表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26430" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="卡牌列表" sheetId="1" r:id="rId1"/>
+    <sheet name="卡牌掉率" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>编号</t>
   </si>
@@ -41,6 +41,69 @@
   </si>
   <si>
     <t>卡牌效果描述</t>
+  </si>
+  <si>
+    <t>费用</t>
+  </si>
+  <si>
+    <t>读条时长s</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+  </si>
+  <si>
+    <t>01Z01Z01Z01Z01</t>
+  </si>
+  <si>
+    <t>测试用卡</t>
+  </si>
+  <si>
+    <t>测试用卡牌，无效果</t>
+  </si>
+  <si>
+    <t>大礼弥撒</t>
+  </si>
+  <si>
+    <t>转化450信徒</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>收取会费</t>
+  </si>
+  <si>
+    <t>获得100金币</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>封口费</t>
+  </si>
+  <si>
+    <t>降低城市危险值5</t>
+  </si>
+  <si>
+    <t>强制募捐</t>
+  </si>
+  <si>
+    <t>增加城市危险值5，获得金币100</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>主神恩赐</t>
+  </si>
+  <si>
+    <t>获得50金币，抽卡</t>
+  </si>
+  <si>
+    <t>异域的进贡</t>
+  </si>
+  <si>
+    <t>随机获得2张卡牌，不消耗金币</t>
   </si>
 </sst>
 </file>
@@ -206,12 +269,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -532,7 +601,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,16 +625,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -574,91 +643,109 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -971,31 +1058,333 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.375" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6">
+        <v>90</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>125</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1008,14 +1397,505 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.28</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>60</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>90</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>100</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>110</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>140</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>150</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>160</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>170</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>180</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>190</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>200</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>210</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>220</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>230</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>240</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>250</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>260</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>270</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>280</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>290</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
+        <v>300</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/策划案/设计文档/牌库表.xlsx
+++ b/策划案/设计文档/牌库表.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowHeight="17775" tabRatio="626" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌列表" sheetId="1" r:id="rId1"/>
     <sheet name="卡牌掉率" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,38 +28,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="79">
   <si>
     <t>编号</t>
   </si>
   <si>
+    <t>卡牌名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>卡牌效果描述</t>
+  </si>
+  <si>
+    <t>费用</t>
+  </si>
+  <si>
+    <t>读条s</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+  </si>
+  <si>
     <t>卡牌唯一id</t>
   </si>
   <si>
-    <t>卡牌名称</t>
-  </si>
-  <si>
-    <t>卡牌效果描述</t>
-  </si>
-  <si>
-    <t>费用</t>
-  </si>
-  <si>
-    <t>读条时长s</t>
-  </si>
-  <si>
-    <t>稀有度</t>
+    <t>测试用卡</t>
+  </si>
+  <si>
+    <t>消耗牌</t>
+  </si>
+  <si>
+    <t>测试用卡牌，无效果</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>01Z01Z01Z01Z01</t>
   </si>
   <si>
-    <t>测试用卡</t>
-  </si>
-  <si>
-    <t>测试用卡牌，无效果</t>
-  </si>
-  <si>
     <t>大礼弥撒</t>
   </si>
   <si>
@@ -82,19 +90,19 @@
     <t>封口费</t>
   </si>
   <si>
-    <t>降低城市危险值5</t>
+    <t>危险值减5</t>
   </si>
   <si>
     <t>强制募捐</t>
   </si>
   <si>
-    <t>增加城市危险值5，获得金币100</t>
+    <t>增加城市危险值5，获得100金币</t>
   </si>
   <si>
     <t>UR</t>
   </si>
   <si>
-    <t>主神恩赐</t>
+    <t>货物清点</t>
   </si>
   <si>
     <t>获得50金币，抽卡</t>
@@ -103,7 +111,160 @@
     <t>异域的进贡</t>
   </si>
   <si>
-    <t>随机获得2张卡牌，不消耗金币</t>
+    <t>随机获得2张卡牌，费用改为0</t>
+  </si>
+  <si>
+    <t>迈达斯炸弹</t>
+  </si>
+  <si>
+    <t>危险值增加5，减少600市民</t>
+  </si>
+  <si>
+    <t>非法宣讲</t>
+  </si>
+  <si>
+    <t>危险值增加5，转化300信徒</t>
+  </si>
+  <si>
+    <t>疯狂诗篇</t>
+  </si>
+  <si>
+    <t>危险值增加5，降低2理智</t>
+  </si>
+  <si>
+    <t>腐败晚宴</t>
+  </si>
+  <si>
+    <t>持续牌</t>
+  </si>
+  <si>
+    <t>每2秒危险值增加1并获得10金币</t>
+  </si>
+  <si>
+    <t>制定教条</t>
+  </si>
+  <si>
+    <t>抽卡，抽卡类型为永续牌</t>
+  </si>
+  <si>
+    <t>库苏恩的拥抱</t>
+  </si>
+  <si>
+    <t>永续牌</t>
+  </si>
+  <si>
+    <t>手牌上限+1</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>秘境回响</t>
+  </si>
+  <si>
+    <t>随机生成一张手牌的副本</t>
+  </si>
+  <si>
+    <t>恩主大教堂</t>
+  </si>
+  <si>
+    <t>每秒转化1信徒</t>
+  </si>
+  <si>
+    <t>紧急征召</t>
+  </si>
+  <si>
+    <t>从所有其他城市向该城市转移300信徒</t>
+  </si>
+  <si>
+    <t>信仰扩散</t>
+  </si>
+  <si>
+    <t>从该城市向所有其他城市转移300信徒</t>
+  </si>
+  <si>
+    <t>女帝的武装舰</t>
+  </si>
+  <si>
+    <t>始发地转化500军队，目的地减少危险值10</t>
+  </si>
+  <si>
+    <t>教皇的巡回艇</t>
+  </si>
+  <si>
+    <t>始发地转化500信徒，之后向目的地转移300信徒</t>
+  </si>
+  <si>
+    <t>征兵令</t>
+  </si>
+  <si>
+    <t>每秒转化X军队</t>
+  </si>
+  <si>
+    <t>销声匿迹</t>
+  </si>
+  <si>
+    <t>去掉一张放在城市的卡牌，危险值减10</t>
+  </si>
+  <si>
+    <t>长眠者的仪式</t>
+  </si>
+  <si>
+    <t>遗物牌</t>
+  </si>
+  <si>
+    <t>向拉莱耶投入30张永续牌，召唤克苏鲁取得胜利</t>
+  </si>
+  <si>
+    <t>步入疯狂</t>
+  </si>
+  <si>
+    <t>将一张随机手牌转化为随机永续牌</t>
+  </si>
+  <si>
+    <t>死城的幻影</t>
+  </si>
+  <si>
+    <t>场上每有一张恩主大教堂，生成一张诡异雕像</t>
+  </si>
+  <si>
+    <t>诡异雕像</t>
+  </si>
+  <si>
+    <t>不可打出，丢弃时降低2理智值</t>
+  </si>
+  <si>
+    <t>克苏鲁的呼唤</t>
+  </si>
+  <si>
+    <t>手牌中每有一张诡异雕像，降低5理智值</t>
+  </si>
+  <si>
+    <t>窒息之梦</t>
+  </si>
+  <si>
+    <t>每5秒转化50信徒并降低1理智</t>
+  </si>
+  <si>
+    <t>原始本能</t>
+  </si>
+  <si>
+    <t>每秒转化5信徒</t>
+  </si>
+  <si>
+    <t>旧日低语</t>
+  </si>
+  <si>
+    <t>信徒转化效率翻倍</t>
+  </si>
+  <si>
+    <t>突击检查</t>
+  </si>
+  <si>
+    <t>退回已放置的所有卡牌，30s内该城市无法放置卡牌</t>
+  </si>
+  <si>
+    <t>抽卡次数</t>
   </si>
 </sst>
 </file>
@@ -269,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,7 +439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,12 +642,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,7 +789,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,135 +801,186 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1058,334 +1297,871 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="16" customWidth="1"/>
+    <col min="4" max="4" width="43.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="7" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="19">
+        <v>90</v>
+      </c>
+      <c r="F3" s="19">
+        <v>5</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>2</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="17">
+        <v>125</v>
+      </c>
+      <c r="F5" s="17">
+        <v>4</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>3</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="17">
+        <v>50</v>
+      </c>
+      <c r="F8" s="17">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
+      <c r="D9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="17">
+        <v>80</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="17">
+        <v>120</v>
+      </c>
+      <c r="F10" s="17">
+        <v>4</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="17">
+        <v>120</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <v>20</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="17">
+        <v>50</v>
+      </c>
+      <c r="F13" s="17">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="17">
+        <v>200</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="17">
+        <v>150</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="17">
+        <v>180</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="17">
+        <v>60</v>
+      </c>
+      <c r="F17" s="17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="17">
+        <v>60</v>
+      </c>
+      <c r="F18" s="17">
+        <v>6</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="18">
+        <v>180</v>
+      </c>
+      <c r="F19" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="G19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="17">
+        <v>150</v>
+      </c>
+      <c r="F20" s="17">
+        <v>5</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>60</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="17">
+        <v>200</v>
+      </c>
+      <c r="F22" s="17">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="G22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="17">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="22">
+        <v>60</v>
+      </c>
+      <c r="F24" s="22">
+        <v>4</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="22">
+        <v>120</v>
+      </c>
+      <c r="F25" s="22">
+        <v>5</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="22">
+        <v>280</v>
+      </c>
+      <c r="F27" s="22">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>90</v>
-      </c>
-      <c r="F3" s="6">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="G27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="22">
+        <v>80</v>
+      </c>
+      <c r="F28" s="22">
+        <v>25</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2">
-        <v>125</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="22">
+        <v>30</v>
+      </c>
+      <c r="F29" s="22">
+        <v>30</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="17">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="22">
+        <v>240</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2">
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2">
+      <c r="B31" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="17">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2">
-        <v>41</v>
-      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1397,19 +2173,38 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="13" width="8.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="18" width="8.875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="12.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.875" style="1" customWidth="1"/>
+    <col min="28" max="30" width="8.875" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="1">
+    <row r="1" spans="2:30">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
       <c r="C1" s="1">
@@ -1451,470 +2246,2946 @@
       <c r="O1" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="B2" s="1" t="s">
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>0.33</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.24</v>
+      <c r="C3" s="5">
+        <v>0.22</v>
       </c>
       <c r="D3" s="5">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="E3" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.0923380304557162</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.195408705132867</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.148193304456191</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.0869576582776887</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.0448909381985119</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.101982224744745</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="5">
+        <v>0.125495268994096</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="V3" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0.0437137289336648</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0.0414952689940964</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0.0398026510133875</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>0.0749590218937863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="1">
         <v>20</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>0.33</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.28</v>
+      <c r="C4" s="5">
+        <v>0.23</v>
       </c>
       <c r="D4" s="5">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="E4" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.094730724775551</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.191028210151304</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.146419250400263</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.0879244876491456</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.0498057976734854</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.103968378704429</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="5">
+        <v>0.12701289628184</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0.047565375693257</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0.0430128962818399</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0.0412870929175277</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0.0765616322328226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1">
         <v>30</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>0.33</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.32</v>
+      <c r="C5" s="5">
+        <v>0.25</v>
       </c>
       <c r="D5" s="5">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="E5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.0971793610172958</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.186848836610984</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.144677248099907</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.0889005759421095</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.0547446954224053</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.105958469667639</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="5">
+        <v>0.128553216179863</v>
+      </c>
+      <c r="U5" s="4"/>
+      <c r="V5" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.0515600621729828</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0.044553216179863</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0.0428476690885259</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0.0782398631705605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="1">
         <v>40</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>0.33</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.36</v>
+      <c r="C6" s="5">
+        <v>0.26</v>
       </c>
       <c r="D6" s="5">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="E6" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.0996852471201222</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.1828613504335</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.142966718477486</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.0898860118254085</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.059707749014984</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.1079525054384</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="5">
+        <v>0.130116568003731</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0.0557031004803153</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0.046116568003731</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0.0444911182523068</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="1">
         <v>50</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>0.33</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.39</v>
+      <c r="C7" s="5">
+        <v>0.27</v>
       </c>
       <c r="D7" s="5">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="E7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.102249721603218</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.179056941504209</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.141287092917528</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.0908808848170152</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.06469507659596</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.109950493836208</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="5">
+        <v>0.13170329614269</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0.0477032961426901</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0.0462250448649376</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.0818490865820999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="1">
         <v>60</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>0.33</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.41</v>
+      <c r="C8" s="5">
+        <v>0.28</v>
       </c>
       <c r="D8" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="E8" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.104874154280758</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.175427204206815</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.139637813077714</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.0918852852921785</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.0697067968879101</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.111952442696058</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="5">
+        <v>0.133313750135532</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0.0644564747203978</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0.0493137501355316</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0.048058067569092</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0.0837950470905062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="1">
         <v>70</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>0.33</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.44</v>
+      <c r="C9" s="5">
+        <v>0.29</v>
       </c>
       <c r="D9" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="E9" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.107559946993589</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.171964118851645</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.138018330703272</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.0928993044916333</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.0747430291940765</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.113958359868475</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="5">
+        <v>0.134948284747592</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0.0690784508319084</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0.0509482847475922</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0.0858468324604345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="1">
         <v>80</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>0.33</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.46</v>
+      <c r="C10" s="5">
+        <v>0.29</v>
       </c>
       <c r="D10" s="5">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="E10" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.110308534358023</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.168660033956632</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.136428107444721</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.0939230345298891</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.0798038934012055</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.115968253219548</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="5">
+        <v>0.136607260048905</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0.0738720746075793</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0.0526072600489048</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0.0520620726159658</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0.0880145976765095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="1">
         <v>90</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>0.33</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.48</v>
+      <c r="C11" s="5">
+        <v>0.3</v>
       </c>
       <c r="D11" s="5">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="E11" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.113121384532139</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.16550764934181</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.134866614678919</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.0949565684035974</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.0848895099824027</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.117982130630955</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="5">
+        <v>0.138291041493518</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0.0788437205763783</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0.0542910414935175</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0.0542572070285374</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0.0903099178571525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>0.33</v>
       </c>
-      <c r="C12" s="4">
-        <v>0.49</v>
+      <c r="C12" s="5">
+        <v>0.3</v>
       </c>
       <c r="D12" s="5">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="E12" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.116</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.1625</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.096</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.0900000000000001</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0.084</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0.056</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0.0566003581778052</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>0.0927460535533632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>0.33</v>
       </c>
-      <c r="C13" s="4">
-        <v>0.5</v>
+      <c r="C13" s="5">
+        <v>0.31</v>
       </c>
       <c r="D13" s="5">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="E13" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.118945918374202</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.159630440708042</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.131827753713493</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.0970534241054576</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.0951354851084376</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.12202186923964</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="5">
+        <v>0.141734512033152</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0.0893477696644773</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0.0577345120331518</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0.0591089451179962</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0.0953382790366965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="1">
         <v>120</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>0.33</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.51</v>
+      <c r="C14" s="5">
+        <v>0.31</v>
       </c>
       <c r="D14" s="5">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="E14" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.121960713217194</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.156892631344565</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.130349375333552</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.0981169364140602</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.10029608755716</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.124047746278518</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="5">
+        <v>0.143494959686934</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0.0948941409982901</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0.0594949596869343</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0.0618033988749895</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>0.0981042919855316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="1">
         <v>130</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>0.33</v>
       </c>
-      <c r="C15" s="4">
-        <v>0.51</v>
+      <c r="C15" s="5">
+        <v>0.31</v>
       </c>
       <c r="D15" s="5">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="E15" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.125045994881793</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.154280522881865</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.128897706749923</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.0991906335363205</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.105481930193526</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.126077639060992</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="5">
+        <v>0.145281730768641</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0.100646489529095</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0.061281730768641</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0.0647078669352809</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>0.101064729457504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="1">
         <v>140</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>0.33</v>
       </c>
-      <c r="C16" s="4">
-        <v>0.51</v>
+      <c r="C16" s="5">
+        <v>0.31</v>
       </c>
       <c r="D16" s="5">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="E16" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.128203411371354</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.151788344020937</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.127472265397905</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.100274613007949</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0.110693136465733</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.128111555547168</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="5">
+        <v>0.147095218884328</v>
+      </c>
+      <c r="U16" s="4"/>
+      <c r="V16" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0.106612464691654</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0.063095218884328</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0.0678511301977579</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>0.104243824217575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="1">
         <v>150</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>0.33</v>
       </c>
-      <c r="C17" s="4">
-        <v>0.51</v>
+      <c r="C17" s="5">
+        <v>0.3</v>
       </c>
       <c r="D17" s="5">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="E17" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.131434649220055</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.149410588440131</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.126072577431273</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.101368973298717</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0.115929830425758</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.130149503712932</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="5">
+        <v>0.14893582352552</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0.1128</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0.0649358235255205</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0.0712678125181665</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>0.107670248696953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="1">
         <v>160</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>0.33</v>
       </c>
-      <c r="C18" s="4">
-        <v>0.5</v>
+      <c r="C18" s="5">
+        <v>0.3</v>
       </c>
       <c r="D18" s="5">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="E18" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.134741434393755</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.147142002629259</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.124698177564762</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.102473813821396</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.121192136732306</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.132191491549979</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="5">
+        <v>0.150803950157217</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0.119217323597373</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0.0668039501572166</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0.075</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>0.111378213159759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="1">
         <v>170</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>0.33</v>
       </c>
-      <c r="C19" s="4">
-        <v>0.5</v>
+      <c r="C19" s="5">
+        <v>0.29</v>
       </c>
       <c r="D19" s="5">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="E19" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.138125533211922</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.144977574282278</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.123348608919393</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.103589234940797</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.12648018065378</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.134237527065845</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19" s="5">
+        <v>0.152700010307207</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0.125872969197948</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0.0687000103072069</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0.0790994448735805</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>0.115408913366638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="1">
         <v>180</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>0.33</v>
       </c>
-      <c r="C20" s="4">
-        <v>0.48</v>
+      <c r="C20" s="5">
+        <v>0.28</v>
       </c>
       <c r="D20" s="5">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
+      <c r="E20" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.141588753291109</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.142912521222895</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.122023422870601</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.104715337982878</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.131794088071266</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.136287618283938</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="7">
+        <v>0.15462442165673</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0.132775787434914</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0.0706244216567295</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0.0836306209562122</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>0.119812466568131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="1">
         <v>190</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>0.33</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.47</v>
+      <c r="C21" s="5">
+        <v>0.27</v>
       </c>
       <c r="D21" s="5">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
+      <c r="E21" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.145132944510495</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.140942280838631</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.120722178899099</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.105852225243957</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.137133985481523</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.138341773243574</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="7">
+        <v>0.15657760813248</v>
+      </c>
+      <c r="U21" s="4"/>
+      <c r="V21" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0.139934957629985</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0.0725776081324803</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>0.0886750490563073</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>0.124650542118226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="1">
         <v>200</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>0.33</v>
       </c>
-      <c r="C22" s="4">
-        <v>0.45</v>
+      <c r="C22" s="5">
+        <v>0.26</v>
       </c>
       <c r="D22" s="5">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+      <c r="E22" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.14</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.14876</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.1390625</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.119444444444444</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0.1425</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.1404</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="7">
+        <v>0.15856</v>
+      </c>
+      <c r="U22" s="4"/>
+      <c r="V22" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0.14736</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0.07456</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0.0943375672974065</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>0.33</v>
       </c>
-      <c r="C23" s="4">
-        <v>0.43</v>
+      <c r="C23" s="5">
+        <v>0.25</v>
       </c>
       <c r="D23" s="5">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
+      <c r="E23" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.152471857151495</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.137269025442526</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.118189794761244</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.108158766516003</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0.147892259363859</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.142462306624433</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="7">
+        <v>0.160572033958456</v>
+      </c>
+      <c r="U23" s="4"/>
+      <c r="V23" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0.155060788316847</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0.0765720339584561</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0.100755672288882</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>0.135958024809816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="1">
         <v>220</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>0.33</v>
       </c>
-      <c r="C24" s="4">
-        <v>0.4</v>
+      <c r="C24" s="5">
+        <v>0.24</v>
       </c>
       <c r="D24" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="E24" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.156270498653665</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.135557894590353</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.11695781277796</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.109328630055466</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0.153310891935018</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.144528701204088</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="T24" s="7">
+        <v>0.162614153236844</v>
+      </c>
+      <c r="U24" s="4"/>
+      <c r="V24" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0.163047563037538</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0.0786141532368438</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0.108113883008419</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0.142649535037194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="1">
         <v>230</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>0.33</v>
       </c>
-      <c r="C25" s="4">
-        <v>0.37</v>
+      <c r="C25" s="5">
+        <v>0.22</v>
       </c>
       <c r="D25" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
+      <c r="E25" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.160157953551059</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.133925326801166</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.115748088958269</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.110509696889953</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0.158756026703202</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0.146599191842211</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="7">
+        <v>0.164686807691624</v>
+      </c>
+      <c r="U25" s="4"/>
+      <c r="V25" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0.171330944921897</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0.0806868076916236</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>0.116666666666667</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>0.15023815442732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="1">
         <v>240</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>0.33</v>
       </c>
-      <c r="C26" s="4">
-        <v>0.34</v>
+      <c r="C26" s="5">
+        <v>0.21</v>
       </c>
       <c r="D26" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
+      <c r="E26" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.164136298327906</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.132367715013086</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0.114560221164921</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0.111702074308744</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0.16422779328902</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0.148673786658111</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="T26" s="7">
+        <v>0.16679045390582</v>
+      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0.179921949155982</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0.0827904539058205</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>0.126776695296637</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>0.15894294565113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="1">
         <v>250</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>0.33</v>
       </c>
-      <c r="C27" s="4">
-        <v>0.31</v>
+      <c r="C27" s="5">
+        <v>0.19</v>
       </c>
       <c r="D27" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
+      <c r="E27" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.168207658017269</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.130881617775082</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.113393814526061</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.112905870628588</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0.169726321947046</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.150752493787191</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="7">
+        <v>0.168925555289604</v>
+      </c>
+      <c r="U27" s="4"/>
+      <c r="V27" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0.188832</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0.0849255552896038</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0.138982236504614</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>0.169064826317888</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="1">
         <v>260</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>0.33</v>
       </c>
-      <c r="C28" s="4">
-        <v>0.27</v>
+      <c r="C28" s="5">
+        <v>0.17</v>
       </c>
       <c r="D28" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
+      <c r="E28" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.172374207336132</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.129463751643287</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0.112248481303968</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.114121195203536</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0.175251743568921</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0.152835321380978</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="10">
+        <v>0.171092582182371</v>
+      </c>
+      <c r="U28" s="4"/>
+      <c r="V28" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>0.198072945980217</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>0.0870925821823713</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>0.154124145231932</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>0.181029995663981</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="1">
         <v>270</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>0.33</v>
       </c>
-      <c r="C29" s="4">
-        <v>0.22</v>
+      <c r="C29" s="5">
+        <v>0.15</v>
       </c>
       <c r="D29" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
+      <c r="E29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.176638171847021</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.128110983926424</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.111123840766161</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.115348158434876</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>0.180804189686469</v>
+      </c>
+      <c r="R29" s="5">
+        <v>0.154922277607161</v>
+      </c>
+      <c r="S29" s="4"/>
+      <c r="T29" s="10">
+        <v>0.17329201195636</v>
+      </c>
+      <c r="U29" s="4"/>
+      <c r="V29" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X29" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>0.207657075645045</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>0.0892920119563601</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>0.173606797749979</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>0.195464876785729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="1">
         <v>280</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>0.33</v>
       </c>
-      <c r="C30" s="4">
-        <v>0.18</v>
+      <c r="C30" s="5">
+        <v>0.13</v>
       </c>
       <c r="D30" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
+      <c r="E30" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.181001829146797</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.12682032576431</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.110019519058834</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.116586871781166</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0.186383792474829</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0.157013370649617</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="10">
+        <v>0.175524329121806</v>
+      </c>
+      <c r="U30" s="4"/>
+      <c r="V30" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>0.217597133906276</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>0.0915243291218062</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>0.213333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="1">
         <v>290</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>0.33</v>
       </c>
-      <c r="C31" s="4">
-        <v>0.13</v>
+      <c r="C31" s="5">
+        <v>0.1</v>
       </c>
       <c r="D31" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2">
+      <c r="E31" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.185467510083224</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.125588925524144</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0.108935149082582</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.117837447768353</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0.191990684755599</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.159108608708446</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="T31" s="9">
+        <v>0.177790025433677</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>0.227906338987178</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>0.0937900254336772</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>0.238675134594813</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>0.236207187108022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="1">
         <v>300</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>0.33</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>0.08</v>
       </c>
       <c r="D32" s="5">
         <v>0.15</v>
       </c>
+      <c r="E32" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.1900376</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.1244140625</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0.10787037037037</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0.1191</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0.197625</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0.161208</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="9">
+        <v>0.1800896</v>
+      </c>
+      <c r="U32" s="4"/>
+      <c r="V32" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0.2385984</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>0.0960896</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>0.303553390593274</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>0.266852807234542</v>
+      </c>
+    </row>
+    <row r="33" spans="7:21">
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="7:21">
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="8"/>
+    </row>
+    <row r="35" spans="7:21">
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="8"/>
+    </row>
+    <row r="36" spans="7:20">
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="8"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="7:20">
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="8"/>
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="7:20">
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="8"/>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="7:11">
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="7:11">
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="7:11">
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="7:11">
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="7:11">
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="7:11">
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="7:11">
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="7:11">
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="7:11">
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="7:11">
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="7:11">
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="7:11">
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51" spans="7:11">
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="7:11">
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" spans="7:11">
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/策划案/设计文档/牌库表.xlsx
+++ b/策划案/设计文档/牌库表.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" tabRatio="626" activeTab="1"/>
+    <workbookView windowHeight="17655" tabRatio="626"/>
   </bookViews>
   <sheets>
-    <sheet name="卡牌列表" sheetId="1" r:id="rId1"/>
-    <sheet name="卡牌掉率" sheetId="2" r:id="rId2"/>
+    <sheet name="卡牌列表纯效果" sheetId="1" r:id="rId1"/>
+    <sheet name="卡牌列表带数值" sheetId="3" r:id="rId2"/>
+    <sheet name="卡牌掉率" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="104">
   <si>
     <t>编号</t>
   </si>
@@ -72,193 +73,268 @@
     <t>大礼弥撒</t>
   </si>
   <si>
+    <t>转化X信徒</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>收取会费</t>
+  </si>
+  <si>
+    <t>获得X金币</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>封口费</t>
+  </si>
+  <si>
+    <t>危险值减X</t>
+  </si>
+  <si>
+    <t>强制募捐</t>
+  </si>
+  <si>
+    <t>增加城市危险值X，获得X金币</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>货物清点</t>
+  </si>
+  <si>
+    <t>获得X金币，抽卡</t>
+  </si>
+  <si>
+    <t>异域的进贡</t>
+  </si>
+  <si>
+    <t>随机获得X张卡牌，费用改为0</t>
+  </si>
+  <si>
+    <t>迈达斯炸弹</t>
+  </si>
+  <si>
+    <t>危险值增加X，减少X市民</t>
+  </si>
+  <si>
+    <t>非法宣讲</t>
+  </si>
+  <si>
+    <t>危险值增加X，转化X信徒</t>
+  </si>
+  <si>
+    <t>疯狂诗篇</t>
+  </si>
+  <si>
+    <t>危险值增加X，降低X理智</t>
+  </si>
+  <si>
+    <t>腐败晚宴</t>
+  </si>
+  <si>
+    <t>持续牌</t>
+  </si>
+  <si>
+    <t>每X秒危险值增加X并获得X金币</t>
+  </si>
+  <si>
+    <t>制定教条</t>
+  </si>
+  <si>
+    <t>抽卡，抽卡类型为永续牌</t>
+  </si>
+  <si>
+    <t>库苏恩的拥抱</t>
+  </si>
+  <si>
+    <t>永续牌</t>
+  </si>
+  <si>
+    <t>手牌上限+X</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>秘境回响</t>
+  </si>
+  <si>
+    <t>随机生成X张手牌的副本</t>
+  </si>
+  <si>
+    <t>恩主大教堂</t>
+  </si>
+  <si>
+    <t>每秒转化X信徒</t>
+  </si>
+  <si>
+    <t>紧急征召</t>
+  </si>
+  <si>
+    <t>从所有其他城市向该城市转移X信徒</t>
+  </si>
+  <si>
+    <t>信仰扩散</t>
+  </si>
+  <si>
+    <t>从该城市向所有其他城市转移X信徒</t>
+  </si>
+  <si>
+    <t>女帝的武装舰</t>
+  </si>
+  <si>
+    <t>始发地转化X军队，目的地减少危险值X</t>
+  </si>
+  <si>
+    <t>教皇的巡回艇</t>
+  </si>
+  <si>
+    <t>始发地转化X信徒，之后向目的地转移X信徒</t>
+  </si>
+  <si>
+    <t>征兵令</t>
+  </si>
+  <si>
+    <t>每秒转化X军队</t>
+  </si>
+  <si>
+    <t>销声匿迹</t>
+  </si>
+  <si>
+    <t>去掉X张放在城市的卡牌，危险值减X</t>
+  </si>
+  <si>
+    <t>长眠者的仪式</t>
+  </si>
+  <si>
+    <t>遗物牌</t>
+  </si>
+  <si>
+    <t>向拉莱耶投入X张永续牌，召唤克苏鲁取得胜利</t>
+  </si>
+  <si>
+    <t>步入疯狂</t>
+  </si>
+  <si>
+    <t>将X张随机手牌转化为随机永续牌</t>
+  </si>
+  <si>
+    <t>死城的幻影</t>
+  </si>
+  <si>
+    <t>场上每有X张恩主大教堂，生成X张诡异雕像</t>
+  </si>
+  <si>
+    <t>诡异雕像</t>
+  </si>
+  <si>
+    <t>不可打出，丢弃时降低X理智值</t>
+  </si>
+  <si>
+    <t>克苏鲁的呼唤</t>
+  </si>
+  <si>
+    <t>手牌中每有X张诡异雕像，降低X理智值</t>
+  </si>
+  <si>
+    <t>窒息之梦</t>
+  </si>
+  <si>
+    <t>每X秒转化X信徒并降低X理智</t>
+  </si>
+  <si>
+    <t>原始本能</t>
+  </si>
+  <si>
+    <t>旧日低语</t>
+  </si>
+  <si>
+    <t>信徒转化效率翻倍</t>
+  </si>
+  <si>
+    <t>突击检查</t>
+  </si>
+  <si>
+    <t>退回已放置的所有卡牌，Xs内该城市无法放置卡牌</t>
+  </si>
+  <si>
     <t>转化450信徒</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>收取会费</t>
-  </si>
-  <si>
     <t>获得100金币</t>
   </si>
   <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>封口费</t>
-  </si>
-  <si>
     <t>危险值减5</t>
   </si>
   <si>
-    <t>强制募捐</t>
-  </si>
-  <si>
     <t>增加城市危险值5，获得100金币</t>
   </si>
   <si>
-    <t>UR</t>
-  </si>
-  <si>
-    <t>货物清点</t>
-  </si>
-  <si>
     <t>获得50金币，抽卡</t>
   </si>
   <si>
-    <t>异域的进贡</t>
-  </si>
-  <si>
     <t>随机获得2张卡牌，费用改为0</t>
   </si>
   <si>
-    <t>迈达斯炸弹</t>
-  </si>
-  <si>
     <t>危险值增加5，减少600市民</t>
   </si>
   <si>
-    <t>非法宣讲</t>
-  </si>
-  <si>
     <t>危险值增加5，转化300信徒</t>
   </si>
   <si>
-    <t>疯狂诗篇</t>
-  </si>
-  <si>
     <t>危险值增加5，降低2理智</t>
   </si>
   <si>
-    <t>腐败晚宴</t>
-  </si>
-  <si>
-    <t>持续牌</t>
-  </si>
-  <si>
     <t>每2秒危险值增加1并获得10金币</t>
   </si>
   <si>
-    <t>制定教条</t>
-  </si>
-  <si>
-    <t>抽卡，抽卡类型为永续牌</t>
-  </si>
-  <si>
-    <t>库苏恩的拥抱</t>
-  </si>
-  <si>
-    <t>永续牌</t>
-  </si>
-  <si>
     <t>手牌上限+1</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>秘境回响</t>
-  </si>
-  <si>
     <t>随机生成一张手牌的副本</t>
   </si>
   <si>
-    <t>恩主大教堂</t>
-  </si>
-  <si>
     <t>每秒转化1信徒</t>
   </si>
   <si>
-    <t>紧急征召</t>
-  </si>
-  <si>
     <t>从所有其他城市向该城市转移300信徒</t>
   </si>
   <si>
-    <t>信仰扩散</t>
-  </si>
-  <si>
     <t>从该城市向所有其他城市转移300信徒</t>
   </si>
   <si>
-    <t>女帝的武装舰</t>
-  </si>
-  <si>
     <t>始发地转化500军队，目的地减少危险值10</t>
   </si>
   <si>
-    <t>教皇的巡回艇</t>
-  </si>
-  <si>
     <t>始发地转化500信徒，之后向目的地转移300信徒</t>
   </si>
   <si>
-    <t>征兵令</t>
-  </si>
-  <si>
-    <t>每秒转化X军队</t>
-  </si>
-  <si>
-    <t>销声匿迹</t>
-  </si>
-  <si>
     <t>去掉一张放在城市的卡牌，危险值减10</t>
   </si>
   <si>
-    <t>长眠者的仪式</t>
-  </si>
-  <si>
-    <t>遗物牌</t>
-  </si>
-  <si>
     <t>向拉莱耶投入30张永续牌，召唤克苏鲁取得胜利</t>
   </si>
   <si>
-    <t>步入疯狂</t>
-  </si>
-  <si>
     <t>将一张随机手牌转化为随机永续牌</t>
   </si>
   <si>
-    <t>死城的幻影</t>
-  </si>
-  <si>
     <t>场上每有一张恩主大教堂，生成一张诡异雕像</t>
   </si>
   <si>
-    <t>诡异雕像</t>
-  </si>
-  <si>
     <t>不可打出，丢弃时降低2理智值</t>
   </si>
   <si>
-    <t>克苏鲁的呼唤</t>
-  </si>
-  <si>
     <t>手牌中每有一张诡异雕像，降低5理智值</t>
   </si>
   <si>
-    <t>窒息之梦</t>
-  </si>
-  <si>
     <t>每5秒转化50信徒并降低1理智</t>
   </si>
   <si>
-    <t>原始本能</t>
-  </si>
-  <si>
     <t>每秒转化5信徒</t>
-  </si>
-  <si>
-    <t>旧日低语</t>
-  </si>
-  <si>
-    <t>信徒转化效率翻倍</t>
-  </si>
-  <si>
-    <t>突击检查</t>
   </si>
   <si>
     <t>退回已放置的所有卡牌，30s内该城市无法放置卡牌</t>
@@ -913,7 +989,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,9 +999,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -941,21 +1014,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -969,9 +1027,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,869 +1354,869 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="16" customWidth="1"/>
-    <col min="4" max="4" width="43.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="7" style="16" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="5.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="43.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="12">
         <v>0</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="12">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="13">
         <v>90</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="13">
         <v>5</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="17">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="13">
         <v>0</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="13">
         <v>2</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="17">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="11">
         <v>125</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="11">
         <v>4</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="17">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="17">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="11">
         <v>3</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="17">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="11">
         <v>50</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="11">
         <v>8</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="17">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="11">
         <v>80</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="17">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="11">
         <v>120</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="11">
         <v>4</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="17">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="11">
         <v>120</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="11">
         <v>2</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="17">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="11">
         <v>0</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="11">
         <v>20</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="17">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="11">
         <v>50</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="11">
         <v>2</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="17">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="11">
         <v>200</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="17">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="11">
         <v>150</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="17">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="11">
         <v>180</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="17">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="11">
         <v>60</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="11">
         <v>6</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="17">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="11">
         <v>60</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="11">
         <v>6</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="17">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="12">
         <v>180</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="12">
         <v>5</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="17">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="11">
         <v>150</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="11">
         <v>5</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="17">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12">
         <v>60</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="17">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="11">
         <v>200</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="11">
         <v>2</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="17">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="14">
         <v>0</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="17">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="15">
         <v>60</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="15">
         <v>4</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="17">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="15">
         <v>120</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="15">
         <v>5</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="22"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="17">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="15">
         <v>0</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="17">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="15">
         <v>280</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="15">
         <v>10</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="22"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="17">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="15">
         <v>80</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="15">
         <v>25</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="22"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="17">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="15">
+        <v>30</v>
+      </c>
+      <c r="F29" s="15">
+        <v>30</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="22">
+      <c r="C30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="15">
+        <v>240</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="F29" s="22">
-        <v>30</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="17">
-        <v>29</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="22" t="s">
+      <c r="B31" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="22">
-        <v>240</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="17">
-        <v>30</v>
-      </c>
-      <c r="B31" s="23" t="s">
+      <c r="C31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="17">
-        <v>31</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="17">
-        <v>32</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="17">
-        <v>33</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="17">
-        <v>34</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="17">
-        <v>35</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="17">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="17">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="17">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="17">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2173,9 +2228,885 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="43.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="13">
+        <v>90</v>
+      </c>
+      <c r="F3" s="13">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="11">
+        <v>125</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="11">
+        <v>50</v>
+      </c>
+      <c r="F8" s="11">
+        <v>8</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="11">
+        <v>80</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="11">
+        <v>120</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="11">
+        <v>120</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>20</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="11">
+        <v>50</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="11">
+        <v>200</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="11">
+        <v>150</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="11">
+        <v>180</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="11">
+        <v>60</v>
+      </c>
+      <c r="F17" s="11">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="11">
+        <v>60</v>
+      </c>
+      <c r="F18" s="11">
+        <v>6</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="12">
+        <v>180</v>
+      </c>
+      <c r="F19" s="12">
+        <v>5</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="11">
+        <v>150</v>
+      </c>
+      <c r="F20" s="11">
+        <v>5</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12">
+        <v>60</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="11">
+        <v>200</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="15">
+        <v>60</v>
+      </c>
+      <c r="F24" s="15">
+        <v>4</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="15">
+        <v>120</v>
+      </c>
+      <c r="F25" s="15">
+        <v>5</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="15">
+        <v>280</v>
+      </c>
+      <c r="F27" s="15">
+        <v>10</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="15">
+        <v>80</v>
+      </c>
+      <c r="F28" s="15">
+        <v>25</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="15">
+        <v>30</v>
+      </c>
+      <c r="F29" s="15">
+        <v>30</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="15">
+        <v>240</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
@@ -2294,7 +3225,7 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -2311,164 +3242,164 @@
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AD2" s="15" t="s">
-        <v>74</v>
+      <c r="AD2" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.33</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.22</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.36</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.06</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.19</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.12</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.09</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>0.23</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>0.0923380304557162</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>0.195408705132867</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>0.148193304456191</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>0.0869576582776887</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>0.07</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>0.08</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>0.0448909381985119</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>0.101982224744745</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="5">
+      <c r="S3" s="3"/>
+      <c r="T3" s="4">
         <v>0.125495268994096</v>
       </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="5">
+      <c r="U3" s="3"/>
+      <c r="V3" s="4">
         <v>0.08</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="4">
         <v>0.05</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="4">
         <v>0.0437137289336648</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="4">
         <v>0.0414952689940964</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="4">
         <v>0.0398026510133875</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="4">
         <v>0.08</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3" s="4">
         <v>0.16</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="4">
         <v>0.0749590218937863</v>
       </c>
     </row>
@@ -2476,87 +3407,87 @@
       <c r="A4" s="1">
         <v>20</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.33</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.23</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.28</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.07</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.18</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.12</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.09</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.23</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>0.094730724775551</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>0.191028210151304</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>0.146419250400263</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>0.0879244876491456</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>0.12</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>0.09</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>0.0498057976734854</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>0.103968378704429</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="5">
+      <c r="S4" s="3"/>
+      <c r="T4" s="4">
         <v>0.12701289628184</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="5">
+      <c r="U4" s="3"/>
+      <c r="V4" s="4">
         <v>0.09</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="4">
         <v>0.047565375693257</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="4">
         <v>0.0430128962818399</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="4">
         <v>0.0412870929175277</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="4">
         <v>0.1</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4" s="4">
         <v>0.17</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" s="4">
         <v>0.0765616322328226</v>
       </c>
     </row>
@@ -2564,87 +3495,87 @@
       <c r="A5" s="1">
         <v>30</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.33</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.25</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.24</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.08</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.16</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>0.19</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.12</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.1</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.22</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>0.0971793610172958</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>0.186848836610984</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>0.144677248099907</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>0.0889005759421095</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>0.14</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>0.11</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>0.0547446954224053</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>0.105958469667639</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="5">
+      <c r="S5" s="3"/>
+      <c r="T5" s="4">
         <v>0.128553216179863</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="5">
+      <c r="U5" s="3"/>
+      <c r="V5" s="4">
         <v>0.11</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="4">
         <v>0.11</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="4">
         <v>0.0515600621729828</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="4">
         <v>0.044553216179863</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="4">
         <v>0.0428476690885259</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="4">
         <v>0.11</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" s="4">
         <v>0.17</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" s="4">
         <v>0.0782398631705605</v>
       </c>
     </row>
@@ -2652,87 +3583,87 @@
       <c r="A6" s="1">
         <v>40</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.33</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.26</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.23</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.09</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.15</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.19</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>0.13</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0.1</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.22</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>0.0996852471201222</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>0.1828613504335</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>0.142966718477486</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>0.0898860118254085</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>0.15</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>0.12</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>0.059707749014984</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <v>0.1079525054384</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="5">
+      <c r="S6" s="3"/>
+      <c r="T6" s="4">
         <v>0.130116568003731</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="5">
+      <c r="U6" s="3"/>
+      <c r="V6" s="4">
         <v>0.12</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="4">
         <v>0.12</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="4">
         <v>0.0557031004803153</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="4">
         <v>0.046116568003731</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="4">
         <v>0.0444911182523068</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="4">
         <v>0.11</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6" s="4">
         <v>0.17</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="4">
         <v>0.08</v>
       </c>
     </row>
@@ -2740,87 +3671,87 @@
       <c r="A7" s="1">
         <v>50</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.33</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.27</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.21</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.14</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0.19</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.13</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0.1</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0.22</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>0.102249721603218</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>0.179056941504209</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>0.141287092917528</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>0.0908808848170152</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>0.16</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>0.13</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>0.06469507659596</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4">
         <v>0.109950493836208</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="5">
+      <c r="S7" s="3"/>
+      <c r="T7" s="4">
         <v>0.13170329614269</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="5">
+      <c r="U7" s="3"/>
+      <c r="V7" s="4">
         <v>0.13</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="4">
         <v>0.13</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="4">
         <v>0.06</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="4">
         <v>0.0477032961426901</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="4">
         <v>0.0462250448649376</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="4">
         <v>0.11</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7" s="4">
         <v>0.17</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD7" s="4">
         <v>0.0818490865820999</v>
       </c>
     </row>
@@ -2828,87 +3759,87 @@
       <c r="A8" s="1">
         <v>60</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.33</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.28</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.11</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.13</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.19</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.13</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.11</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>0.22</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>0.104874154280758</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>0.175427204206815</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>0.139637813077714</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>0.0918852852921785</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>0.17</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <v>0.13</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>0.0697067968879101</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="4">
         <v>0.111952442696058</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="5">
+      <c r="S8" s="3"/>
+      <c r="T8" s="4">
         <v>0.133313750135532</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="5">
+      <c r="U8" s="3"/>
+      <c r="V8" s="4">
         <v>0.14</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="4">
         <v>0.14</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="4">
         <v>0.0644564747203978</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="4">
         <v>0.0493137501355316</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="4">
         <v>0.048058067569092</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="4">
         <v>0.12</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AC8" s="4">
         <v>0.17</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AD8" s="4">
         <v>0.0837950470905062</v>
       </c>
     </row>
@@ -2916,87 +3847,87 @@
       <c r="A9" s="1">
         <v>70</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.33</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.29</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.12</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.12</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.19</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>0.13</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>0.11</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>0.22</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>0.107559946993589</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>0.171964118851645</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>0.138018330703272</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>0.0928993044916333</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <v>0.17</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <v>0.14</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <v>0.0747430291940765</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <v>0.113958359868475</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="5">
+      <c r="S9" s="3"/>
+      <c r="T9" s="4">
         <v>0.134948284747592</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="5">
+      <c r="U9" s="3"/>
+      <c r="V9" s="4">
         <v>0.15</v>
       </c>
-      <c r="W9" s="5" t="s">
+      <c r="W9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="4">
         <v>0.14</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="4">
         <v>0.0690784508319084</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z9" s="4">
         <v>0.0509482847475922</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9" s="4">
         <v>0.05</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9" s="4">
         <v>0.12</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AC9" s="4">
         <v>0.17</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AD9" s="4">
         <v>0.0858468324604345</v>
       </c>
     </row>
@@ -3004,87 +3935,87 @@
       <c r="A10" s="1">
         <v>80</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.33</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.29</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.19</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.13</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.12</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.18</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0.13</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.11</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>0.21</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>0.110308534358023</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>0.168660033956632</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>0.136428107444721</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>0.0939230345298891</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <v>0.18</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>0.15</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>0.0798038934012055</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <v>0.115968253219548</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="5">
+      <c r="S10" s="3"/>
+      <c r="T10" s="4">
         <v>0.136607260048905</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="5">
+      <c r="U10" s="3"/>
+      <c r="V10" s="4">
         <v>0.15</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="W10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="4">
         <v>0.14</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="4">
         <v>0.0738720746075793</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" s="4">
         <v>0.0526072600489048</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="4">
         <v>0.0520620726159658</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10" s="4">
         <v>0.12</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AC10" s="4">
         <v>0.17</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AD10" s="4">
         <v>0.0880145976765095</v>
       </c>
     </row>
@@ -3092,87 +4023,87 @@
       <c r="A11" s="1">
         <v>90</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.33</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.18</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.13</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.11</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>0.18</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>0.13</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0.11</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>0.21</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>0.113121384532139</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>0.16550764934181</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>0.134866614678919</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>0.0949565684035974</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>0.18</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <v>0.16</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="4">
         <v>0.0848895099824027</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <v>0.117982130630955</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="5">
+      <c r="S11" s="3"/>
+      <c r="T11" s="4">
         <v>0.138291041493518</v>
       </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="5">
+      <c r="U11" s="3"/>
+      <c r="V11" s="4">
         <v>0.16</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="W11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="4">
         <v>0.14</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="4">
         <v>0.0788437205763783</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Z11" s="4">
         <v>0.0542910414935175</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="4">
         <v>0.0542572070285374</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" s="4">
         <v>0.12</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AC11" s="4">
         <v>0.17</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AD11" s="4">
         <v>0.0903099178571525</v>
       </c>
     </row>
@@ -3180,87 +4111,87 @@
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.33</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.3</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.18</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.14</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.1</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>0.18</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>0.13</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>0.12</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>0.21</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>0.116</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>0.1625</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>0.133333333333333</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>0.096</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>0.18</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>0.16</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>0.0900000000000001</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <v>0.12</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="5">
+      <c r="S12" s="3"/>
+      <c r="T12" s="4">
         <v>0.14</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="5">
+      <c r="U12" s="3"/>
+      <c r="V12" s="4">
         <v>0.17</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="W12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="4">
         <v>0.084</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="Z12" s="4">
         <v>0.056</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA12" s="4">
         <v>0.0566003581778052</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB12" s="4">
         <v>0.12</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AC12" s="4">
         <v>0.17</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AD12" s="4">
         <v>0.0927460535533632</v>
       </c>
     </row>
@@ -3268,87 +4199,87 @@
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0.33</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.31</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.18</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.14</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0.1</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0.18</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>0.13</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>0.12</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>0.21</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>0.118945918374202</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>0.159630440708042</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>0.131827753713493</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>0.0970534241054576</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="4">
         <v>0.19</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <v>0.17</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="4">
         <v>0.0951354851084376</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="4">
         <v>0.12202186923964</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="5">
+      <c r="S13" s="3"/>
+      <c r="T13" s="4">
         <v>0.141734512033152</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="5">
+      <c r="U13" s="3"/>
+      <c r="V13" s="4">
         <v>0.17</v>
       </c>
-      <c r="W13" s="5" t="s">
+      <c r="W13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X13" s="5">
+      <c r="X13" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" s="4">
         <v>0.0893477696644773</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="Z13" s="4">
         <v>0.0577345120331518</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AA13" s="4">
         <v>0.0591089451179962</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AB13" s="4">
         <v>0.12</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AC13" s="4">
         <v>0.17</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AD13" s="4">
         <v>0.0953382790366965</v>
       </c>
     </row>
@@ -3356,87 +4287,87 @@
       <c r="A14" s="1">
         <v>120</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0.33</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.31</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.17</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.14</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0.09</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>0.18</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>0.13</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0.12</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>0.21</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>0.121960713217194</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>0.156892631344565</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>0.130349375333552</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>0.0981169364140602</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <v>0.19</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
         <v>0.17</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="4">
         <v>0.10029608755716</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="4">
         <v>0.124047746278518</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="5">
+      <c r="S14" s="3"/>
+      <c r="T14" s="4">
         <v>0.143494959686934</v>
       </c>
-      <c r="U14" s="4"/>
-      <c r="V14" s="5">
+      <c r="U14" s="3"/>
+      <c r="V14" s="4">
         <v>0.18</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="W14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="4">
         <v>0.0948941409982901</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="Z14" s="4">
         <v>0.0594949596869343</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="4">
         <v>0.0618033988749895</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14" s="4">
         <v>0.12</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AC14" s="4">
         <v>0.18</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AD14" s="4">
         <v>0.0981042919855316</v>
       </c>
     </row>
@@ -3444,87 +4375,87 @@
       <c r="A15" s="1">
         <v>130</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0.33</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.31</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0.17</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>0.15</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>0.08</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>0.17</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>0.13</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>0.12</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>0.2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>0.125045994881793</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>0.154280522881865</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>0.128897706749923</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>0.0991906335363205</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="4">
         <v>0.19</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="4">
         <v>0.17</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="4">
         <v>0.105481930193526</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="4">
         <v>0.126077639060992</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="5">
+      <c r="S15" s="3"/>
+      <c r="T15" s="4">
         <v>0.145281730768641</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="5">
+      <c r="U15" s="3"/>
+      <c r="V15" s="4">
         <v>0.18</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="W15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="4">
         <v>0.100646489529095</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="Z15" s="4">
         <v>0.061281730768641</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="4">
         <v>0.0647078669352809</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB15" s="4">
         <v>0.12</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AC15" s="4">
         <v>0.18</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AD15" s="4">
         <v>0.101064729457504</v>
       </c>
     </row>
@@ -3532,87 +4463,87 @@
       <c r="A16" s="1">
         <v>140</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.33</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.31</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.17</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>0.15</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>0.08</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>0.17</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>0.13</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>0.13</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>0.2</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>0.128203411371354</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>0.151788344020937</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>0.127472265397905</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>0.100274613007949</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="4">
         <v>0.19</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="4">
         <v>0.17</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <v>0.110693136465733</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <v>0.128111555547168</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="5">
+      <c r="S16" s="3"/>
+      <c r="T16" s="4">
         <v>0.147095218884328</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="5">
+      <c r="U16" s="3"/>
+      <c r="V16" s="4">
         <v>0.18</v>
       </c>
-      <c r="W16" s="5" t="s">
+      <c r="W16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X16" s="5">
+      <c r="X16" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16" s="4">
         <v>0.106612464691654</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="Z16" s="4">
         <v>0.063095218884328</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA16" s="4">
         <v>0.0678511301977579</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16" s="4">
         <v>0.12</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AC16" s="4">
         <v>0.18</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AD16" s="4">
         <v>0.104243824217575</v>
       </c>
     </row>
@@ -3620,87 +4551,87 @@
       <c r="A17" s="1">
         <v>150</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0.33</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.17</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>0.15</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>0.08</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>0.17</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>0.13</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>0.13</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>0.2</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>0.131434649220055</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>0.149410588440131</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>0.126072577431273</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <v>0.101368973298717</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="4">
         <v>0.19</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="4">
         <v>0.18</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="4">
         <v>0.115929830425758</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="4">
         <v>0.130149503712932</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="5">
+      <c r="S17" s="3"/>
+      <c r="T17" s="4">
         <v>0.14893582352552</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="5">
+      <c r="U17" s="3"/>
+      <c r="V17" s="4">
         <v>0.19</v>
       </c>
-      <c r="W17" s="5" t="s">
+      <c r="W17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y17" s="4">
         <v>0.1128</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="Z17" s="4">
         <v>0.0649358235255205</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="4">
         <v>0.0712678125181665</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="4">
         <v>0.12</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AC17" s="4">
         <v>0.18</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AD17" s="4">
         <v>0.107670248696953</v>
       </c>
     </row>
@@ -3708,87 +4639,87 @@
       <c r="A18" s="1">
         <v>160</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>0.33</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>0.16</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>0.15</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>0.07</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>0.17</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>0.14</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>0.13</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>0.2</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>0.134741434393755</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>0.147142002629259</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>0.124698177564762</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <v>0.102473813821396</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <v>0.19</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="4">
         <v>0.18</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <v>0.121192136732306</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <v>0.132191491549979</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="5">
+      <c r="S18" s="3"/>
+      <c r="T18" s="4">
         <v>0.150803950157217</v>
       </c>
-      <c r="U18" s="4"/>
-      <c r="V18" s="5">
+      <c r="U18" s="3"/>
+      <c r="V18" s="4">
         <v>0.19</v>
       </c>
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="4">
         <v>0.119217323597373</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="Z18" s="4">
         <v>0.0668039501572166</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="4">
         <v>0.075</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="4">
         <v>0.12</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AC18" s="4">
         <v>0.18</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AD18" s="4">
         <v>0.111378213159759</v>
       </c>
     </row>
@@ -3796,87 +4727,87 @@
       <c r="A19" s="1">
         <v>170</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>0.33</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.29</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>0.16</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>0.15</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>0.07</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>0.17</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>0.14</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>0.14</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>0.2</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>0.138125533211922</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>0.144977574282278</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>0.123348608919393</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <v>0.103589234940797</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="4">
         <v>0.2</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="4">
         <v>0.18</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="4">
         <v>0.12648018065378</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="4">
         <v>0.134237527065845</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="5">
+      <c r="S19" s="3"/>
+      <c r="T19" s="4">
         <v>0.152700010307207</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="5">
+      <c r="U19" s="3"/>
+      <c r="V19" s="4">
         <v>0.19</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="W19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X19" s="5">
+      <c r="X19" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="4">
         <v>0.125872969197948</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="Z19" s="4">
         <v>0.0687000103072069</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AA19" s="4">
         <v>0.0790994448735805</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AB19" s="4">
         <v>0.12</v>
       </c>
-      <c r="AC19" s="5">
+      <c r="AC19" s="4">
         <v>0.18</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AD19" s="4">
         <v>0.115408913366638</v>
       </c>
     </row>
@@ -3884,87 +4815,87 @@
       <c r="A20" s="1">
         <v>180</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>0.33</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.28</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0.16</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>0.15</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>0.07</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>0.16</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>0.14</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>0.14</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>0.19</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>0.141588753291109</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>0.142912521222895</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <v>0.122023422870601</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="4">
         <v>0.104715337982878</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="4">
         <v>0.2</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="4">
         <v>0.18</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="4">
         <v>0.131794088071266</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="4">
         <v>0.136287618283938</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="7">
+      <c r="S20" s="3"/>
+      <c r="T20" s="6">
         <v>0.15462442165673</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="5">
+      <c r="U20" s="3"/>
+      <c r="V20" s="4">
         <v>0.19</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="W20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X20" s="5">
+      <c r="X20" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Y20" s="4">
         <v>0.132775787434914</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="Z20" s="4">
         <v>0.0706244216567295</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AA20" s="4">
         <v>0.0836306209562122</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AB20" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AC20" s="4">
         <v>0.18</v>
       </c>
-      <c r="AD20" s="5">
+      <c r="AD20" s="4">
         <v>0.119812466568131</v>
       </c>
     </row>
@@ -3972,87 +4903,87 @@
       <c r="A21" s="1">
         <v>190</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.33</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.27</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>0.16</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>0.15</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>0.07</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>0.16</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>0.14</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>0.14</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>0.19</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>0.145132944510495</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>0.140942280838631</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>0.120722178899099</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <v>0.105852225243957</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="4">
         <v>0.2</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="4">
         <v>0.17</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="4">
         <v>0.137133985481523</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="4">
         <v>0.138341773243574</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="7">
+      <c r="S21" s="3"/>
+      <c r="T21" s="6">
         <v>0.15657760813248</v>
       </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="5">
+      <c r="U21" s="3"/>
+      <c r="V21" s="4">
         <v>0.19</v>
       </c>
-      <c r="W21" s="5" t="s">
+      <c r="W21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X21" s="5">
+      <c r="X21" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="Y21" s="4">
         <v>0.139934957629985</v>
       </c>
-      <c r="Z21" s="5">
+      <c r="Z21" s="4">
         <v>0.0725776081324803</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AA21" s="4">
         <v>0.0886750490563073</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AB21" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="AC21" s="4">
         <v>0.18</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AD21" s="4">
         <v>0.124650542118226</v>
       </c>
     </row>
@@ -4060,87 +4991,87 @@
       <c r="A22" s="1">
         <v>200</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>0.33</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.26</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>0.16</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>0.14</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>0.07</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>0.16</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>0.14</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="6">
         <v>0.14</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="6">
         <v>0.19</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>0.14876</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>0.1390625</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <v>0.119444444444444</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <v>0.107</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="4">
         <v>0.2</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="4">
         <v>0.17</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="4">
         <v>0.1425</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <v>0.1404</v>
       </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="7">
+      <c r="S22" s="3"/>
+      <c r="T22" s="6">
         <v>0.15856</v>
       </c>
-      <c r="U22" s="4"/>
-      <c r="V22" s="5">
+      <c r="U22" s="3"/>
+      <c r="V22" s="4">
         <v>0.18</v>
       </c>
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="4">
         <v>0.14736</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="Z22" s="4">
         <v>0.07456</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AA22" s="4">
         <v>0.0943375672974065</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AB22" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AC22" s="4">
         <v>0.18</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AD22" s="4">
         <v>0.13</v>
       </c>
     </row>
@@ -4148,87 +5079,87 @@
       <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0.33</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>0.25</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>0.16</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>0.14</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>0.07</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>0.16</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>0.14</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="6">
         <v>0.15</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="6">
         <v>0.19</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>0.152471857151495</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>0.137269025442526</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <v>0.118189794761244</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <v>0.108158766516003</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="4">
         <v>0.2</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="4">
         <v>0.17</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="4">
         <v>0.147892259363859</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="4">
         <v>0.142462306624433</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="7">
+      <c r="S23" s="3"/>
+      <c r="T23" s="6">
         <v>0.160572033958456</v>
       </c>
-      <c r="U23" s="4"/>
-      <c r="V23" s="5">
+      <c r="U23" s="3"/>
+      <c r="V23" s="4">
         <v>0.18</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="W23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X23" s="5">
+      <c r="X23" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="Y23" s="4">
         <v>0.155060788316847</v>
       </c>
-      <c r="Z23" s="5">
+      <c r="Z23" s="4">
         <v>0.0765720339584561</v>
       </c>
-      <c r="AA23" s="5">
+      <c r="AA23" s="4">
         <v>0.100755672288882</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AB23" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC23" s="5">
+      <c r="AC23" s="4">
         <v>0.18</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AD23" s="4">
         <v>0.135958024809816</v>
       </c>
     </row>
@@ -4236,87 +5167,87 @@
       <c r="A24" s="1">
         <v>220</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>0.33</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.24</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>0.15</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>0.13</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>0.07</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>0.16</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>0.14</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="6">
         <v>0.15</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="6">
         <v>0.19</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <v>0.156270498653665</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>0.135557894590353</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="4">
         <v>0.11695781277796</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <v>0.109328630055466</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="4">
         <v>0.2</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="4">
         <v>0.16</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="4">
         <v>0.153310891935018</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="4">
         <v>0.144528701204088</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="7">
+      <c r="S24" s="3"/>
+      <c r="T24" s="6">
         <v>0.162614153236844</v>
       </c>
-      <c r="U24" s="4"/>
-      <c r="V24" s="5">
+      <c r="U24" s="3"/>
+      <c r="V24" s="4">
         <v>0.18</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="W24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X24" s="5">
+      <c r="X24" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y24" s="5">
+      <c r="Y24" s="4">
         <v>0.163047563037538</v>
       </c>
-      <c r="Z24" s="5">
+      <c r="Z24" s="4">
         <v>0.0786141532368438</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="AA24" s="4">
         <v>0.108113883008419</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AB24" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="AC24" s="4">
         <v>0.19</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AD24" s="4">
         <v>0.142649535037194</v>
       </c>
     </row>
@@ -4324,87 +5255,87 @@
       <c r="A25" s="1">
         <v>230</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>0.33</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0.22</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>0.15</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>0.13</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>0.07</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>0.15</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>0.14</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="6">
         <v>0.15</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="6">
         <v>0.18</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <v>0.160157953551059</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>0.133925326801166</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <v>0.115748088958269</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="4">
         <v>0.110509696889953</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="4">
         <v>0.2</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="4">
         <v>0.16</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q25" s="4">
         <v>0.158756026703202</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="4">
         <v>0.146599191842211</v>
       </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="7">
+      <c r="S25" s="3"/>
+      <c r="T25" s="6">
         <v>0.164686807691624</v>
       </c>
-      <c r="U25" s="4"/>
-      <c r="V25" s="5">
+      <c r="U25" s="3"/>
+      <c r="V25" s="4">
         <v>0.17</v>
       </c>
-      <c r="W25" s="5" t="s">
+      <c r="W25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X25" s="5">
+      <c r="X25" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y25" s="5">
+      <c r="Y25" s="4">
         <v>0.171330944921897</v>
       </c>
-      <c r="Z25" s="5">
+      <c r="Z25" s="4">
         <v>0.0806868076916236</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="AA25" s="4">
         <v>0.116666666666667</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AB25" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC25" s="5">
+      <c r="AC25" s="4">
         <v>0.19</v>
       </c>
-      <c r="AD25" s="5">
+      <c r="AD25" s="4">
         <v>0.15023815442732</v>
       </c>
     </row>
@@ -4412,87 +5343,87 @@
       <c r="A26" s="1">
         <v>240</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>0.33</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>0.21</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>0.15</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>0.12</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>0.07</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>0.15</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>0.14</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="6">
         <v>0.16</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="6">
         <v>0.18</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <v>0.164136298327906</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>0.132367715013086</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <v>0.114560221164921</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <v>0.111702074308744</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="4">
         <v>0.2</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="4">
         <v>0.15</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="4">
         <v>0.16422779328902</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="4">
         <v>0.148673786658111</v>
       </c>
-      <c r="S26" s="4"/>
-      <c r="T26" s="7">
+      <c r="S26" s="3"/>
+      <c r="T26" s="6">
         <v>0.16679045390582</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="5">
+      <c r="U26" s="3"/>
+      <c r="V26" s="4">
         <v>0.17</v>
       </c>
-      <c r="W26" s="5" t="s">
+      <c r="W26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X26" s="5">
+      <c r="X26" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y26" s="5">
+      <c r="Y26" s="4">
         <v>0.179921949155982</v>
       </c>
-      <c r="Z26" s="5">
+      <c r="Z26" s="4">
         <v>0.0827904539058205</v>
       </c>
-      <c r="AA26" s="5">
+      <c r="AA26" s="4">
         <v>0.126776695296637</v>
       </c>
-      <c r="AB26" s="5">
+      <c r="AB26" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC26" s="5">
+      <c r="AC26" s="4">
         <v>0.19</v>
       </c>
-      <c r="AD26" s="5">
+      <c r="AD26" s="4">
         <v>0.15894294565113</v>
       </c>
     </row>
@@ -4500,87 +5431,87 @@
       <c r="A27" s="1">
         <v>250</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>0.33</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>0.19</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>0.15</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>0.12</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>0.07</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>0.15</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>0.14</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="6">
         <v>0.16</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="6">
         <v>0.18</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <v>0.168207658017269</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <v>0.130881617775082</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <v>0.113393814526061</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="4">
         <v>0.112905870628588</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="4">
         <v>0.2</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="4">
         <v>0.15</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="4">
         <v>0.169726321947046</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="4">
         <v>0.150752493787191</v>
       </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="7">
+      <c r="S27" s="3"/>
+      <c r="T27" s="6">
         <v>0.168925555289604</v>
       </c>
-      <c r="U27" s="4"/>
-      <c r="V27" s="5">
+      <c r="U27" s="3"/>
+      <c r="V27" s="4">
         <v>0.16</v>
       </c>
-      <c r="W27" s="5" t="s">
+      <c r="W27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X27" s="5">
+      <c r="X27" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y27" s="5">
+      <c r="Y27" s="4">
         <v>0.188832</v>
       </c>
-      <c r="Z27" s="5">
+      <c r="Z27" s="4">
         <v>0.0849255552896038</v>
       </c>
-      <c r="AA27" s="5">
+      <c r="AA27" s="4">
         <v>0.138982236504614</v>
       </c>
-      <c r="AB27" s="5">
+      <c r="AB27" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC27" s="5">
+      <c r="AC27" s="4">
         <v>0.19</v>
       </c>
-      <c r="AD27" s="5">
+      <c r="AD27" s="4">
         <v>0.169064826317888</v>
       </c>
     </row>
@@ -4588,87 +5519,87 @@
       <c r="A28" s="1">
         <v>260</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>0.33</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>0.17</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>0.15</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>0.11</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>0.08</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>0.15</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>0.14</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="6">
         <v>0.16</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="6">
         <v>0.18</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <v>0.172374207336132</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <v>0.129463751643287</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <v>0.112248481303968</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="4">
         <v>0.114121195203536</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="4">
         <v>0.2</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="4">
         <v>0.14</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28" s="4">
         <v>0.175251743568921</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="4">
         <v>0.152835321380978</v>
       </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="10">
+      <c r="S28" s="3"/>
+      <c r="T28" s="6">
         <v>0.171092582182371</v>
       </c>
-      <c r="U28" s="4"/>
-      <c r="V28" s="5">
+      <c r="U28" s="3"/>
+      <c r="V28" s="4">
         <v>0.16</v>
       </c>
-      <c r="W28" s="5" t="s">
+      <c r="W28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X28" s="5">
+      <c r="X28" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y28" s="5">
+      <c r="Y28" s="4">
         <v>0.198072945980217</v>
       </c>
-      <c r="Z28" s="5">
+      <c r="Z28" s="4">
         <v>0.0870925821823713</v>
       </c>
-      <c r="AA28" s="5">
+      <c r="AA28" s="4">
         <v>0.154124145231932</v>
       </c>
-      <c r="AB28" s="5">
+      <c r="AB28" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC28" s="5">
+      <c r="AC28" s="4">
         <v>0.19</v>
       </c>
-      <c r="AD28" s="5">
+      <c r="AD28" s="4">
         <v>0.181029995663981</v>
       </c>
     </row>
@@ -4676,87 +5607,87 @@
       <c r="A29" s="1">
         <v>270</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>0.33</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>0.15</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>0.15</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>0.1</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>0.08</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>0.15</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>0.14</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="6">
         <v>0.16</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="6">
         <v>0.18</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <v>0.176638171847021</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <v>0.128110983926424</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="4">
         <v>0.111123840766161</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="4">
         <v>0.115348158434876</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="4">
         <v>0.2</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="4">
         <v>0.13</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="4">
         <v>0.180804189686469</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="4">
         <v>0.154922277607161</v>
       </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="10">
+      <c r="S29" s="3"/>
+      <c r="T29" s="6">
         <v>0.17329201195636</v>
       </c>
-      <c r="U29" s="4"/>
-      <c r="V29" s="5">
+      <c r="U29" s="3"/>
+      <c r="V29" s="4">
         <v>0.15</v>
       </c>
-      <c r="W29" s="5" t="s">
+      <c r="W29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X29" s="5">
+      <c r="X29" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y29" s="5">
+      <c r="Y29" s="4">
         <v>0.207657075645045</v>
       </c>
-      <c r="Z29" s="5">
+      <c r="Z29" s="4">
         <v>0.0892920119563601</v>
       </c>
-      <c r="AA29" s="5">
+      <c r="AA29" s="4">
         <v>0.173606797749979</v>
       </c>
-      <c r="AB29" s="5">
+      <c r="AB29" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC29" s="5">
+      <c r="AC29" s="4">
         <v>0.19</v>
       </c>
-      <c r="AD29" s="5">
+      <c r="AD29" s="4">
         <v>0.195464876785729</v>
       </c>
     </row>
@@ -4764,87 +5695,87 @@
       <c r="A30" s="1">
         <v>280</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>0.33</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>0.13</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>0.15</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>0.09</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>0.08</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>0.14</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>0.14</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="6">
         <v>0.17</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="6">
         <v>0.17</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
         <v>0.181001829146797</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>0.12682032576431</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="4">
         <v>0.110019519058834</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="4">
         <v>0.116586871781166</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="4">
         <v>0.2</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="4">
         <v>0.12</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30" s="4">
         <v>0.186383792474829</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="4">
         <v>0.157013370649617</v>
       </c>
-      <c r="S30" s="4"/>
-      <c r="T30" s="10">
+      <c r="S30" s="3"/>
+      <c r="T30" s="6">
         <v>0.175524329121806</v>
       </c>
-      <c r="U30" s="4"/>
-      <c r="V30" s="5">
+      <c r="U30" s="3"/>
+      <c r="V30" s="4">
         <v>0.14</v>
       </c>
-      <c r="W30" s="5" t="s">
+      <c r="W30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X30" s="5">
+      <c r="X30" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y30" s="5">
+      <c r="Y30" s="4">
         <v>0.217597133906276</v>
       </c>
-      <c r="Z30" s="5">
+      <c r="Z30" s="4">
         <v>0.0915243291218062</v>
       </c>
-      <c r="AA30" s="5">
+      <c r="AA30" s="4">
         <v>0.2</v>
       </c>
-      <c r="AB30" s="5">
+      <c r="AB30" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC30" s="5">
+      <c r="AC30" s="4">
         <v>0.19</v>
       </c>
-      <c r="AD30" s="5">
+      <c r="AD30" s="4">
         <v>0.213333333333333</v>
       </c>
     </row>
@@ -4852,87 +5783,87 @@
       <c r="A31" s="1">
         <v>290</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>0.33</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>0.1</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>0.15</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>0.08</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>0.09</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>0.14</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>0.15</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="6">
         <v>0.17</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="6">
         <v>0.17</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <v>0.185467510083224</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>0.125588925524144</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <v>0.108935149082582</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="4">
         <v>0.117837447768353</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="4">
         <v>0.21</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="4">
         <v>0.11</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31" s="4">
         <v>0.191990684755599</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="4">
         <v>0.159108608708446</v>
       </c>
-      <c r="S31" s="4"/>
-      <c r="T31" s="9">
+      <c r="S31" s="3"/>
+      <c r="T31" s="6">
         <v>0.177790025433677</v>
       </c>
-      <c r="U31" s="4"/>
-      <c r="V31" s="5">
+      <c r="U31" s="3"/>
+      <c r="V31" s="4">
         <v>0.13</v>
       </c>
-      <c r="W31" s="5" t="s">
+      <c r="W31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X31" s="5">
+      <c r="X31" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y31" s="5">
+      <c r="Y31" s="4">
         <v>0.227906338987178</v>
       </c>
-      <c r="Z31" s="5">
+      <c r="Z31" s="4">
         <v>0.0937900254336772</v>
       </c>
-      <c r="AA31" s="5">
+      <c r="AA31" s="4">
         <v>0.238675134594813</v>
       </c>
-      <c r="AB31" s="5">
+      <c r="AB31" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC31" s="5">
+      <c r="AC31" s="4">
         <v>0.19</v>
       </c>
-      <c r="AD31" s="5">
+      <c r="AD31" s="4">
         <v>0.236207187108022</v>
       </c>
     </row>
@@ -4940,248 +5871,245 @@
       <c r="A32" s="1">
         <v>300</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>0.33</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>0.08</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>0.15</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>0.07</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>0.1</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>0.14</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>0.15</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="6">
         <v>0.17</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="6">
         <v>0.17</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <v>0.1900376</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>0.1244140625</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <v>0.10787037037037</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="4">
         <v>0.1191</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="4">
         <v>0.21</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="4">
         <v>0.1</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q32" s="4">
         <v>0.197625</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="4">
         <v>0.161208</v>
       </c>
-      <c r="S32" s="4"/>
-      <c r="T32" s="9">
+      <c r="S32" s="3"/>
+      <c r="T32" s="6">
         <v>0.1800896</v>
       </c>
-      <c r="U32" s="4"/>
-      <c r="V32" s="5">
+      <c r="U32" s="3"/>
+      <c r="V32" s="4">
         <v>0.12</v>
       </c>
-      <c r="W32" s="5" t="s">
+      <c r="W32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X32" s="5">
+      <c r="X32" s="4">
         <v>0.16</v>
       </c>
-      <c r="Y32" s="5">
+      <c r="Y32" s="4">
         <v>0.2385984</v>
       </c>
-      <c r="Z32" s="5">
+      <c r="Z32" s="4">
         <v>0.0960896</v>
       </c>
-      <c r="AA32" s="5">
+      <c r="AA32" s="4">
         <v>0.303553390593274</v>
       </c>
-      <c r="AB32" s="5">
+      <c r="AB32" s="4">
         <v>0.13</v>
       </c>
-      <c r="AC32" s="5">
+      <c r="AC32" s="4">
         <v>0.19</v>
       </c>
-      <c r="AD32" s="5">
+      <c r="AD32" s="4">
         <v>0.266852807234542</v>
       </c>
     </row>
     <row r="33" spans="7:21">
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="8"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
     </row>
     <row r="34" spans="7:21">
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="8"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
     </row>
     <row r="35" spans="7:21">
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="8"/>
-    </row>
-    <row r="36" spans="7:20">
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="8"/>
-      <c r="T36" s="3"/>
-    </row>
-    <row r="37" spans="7:20">
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="8"/>
-      <c r="T37" s="3"/>
-    </row>
-    <row r="38" spans="7:20">
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="8"/>
-      <c r="T38" s="3"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="7:11">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="7:11">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="7:11">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" spans="7:11">
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="8"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="7:11">
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="8"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="7:11">
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="8"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" spans="7:11">
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" spans="7:11">
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" spans="7:11">
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="8"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" spans="7:11">
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="8"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" spans="7:11">
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="8"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" spans="7:11">
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="8"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" spans="7:11">
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="8"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" spans="7:11">
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="8"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50" spans="7:11">
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="8"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" spans="7:11">
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" spans="7:11">
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53" spans="7:11">
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
